--- a/data/trans_dic/iP30B2_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP30B2_2023-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>64,32%</t>
+          <t>26,55%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>57,71%</t>
+          <t>33,32%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>61,44%</t>
+          <t>30,5%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>58,15; 69,58</t>
+          <t>8,94; 58,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>51,01; 64,09</t>
+          <t>15,94; 54,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>57,08; 65,18</t>
+          <t>17,95; 45,95</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>53,99%</t>
+          <t>64,32%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>50,0%</t>
+          <t>57,71%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>52,02%</t>
+          <t>61,44%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>47,15; 60,88</t>
+          <t>58,15; 69,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>43,84; 57,04</t>
+          <t>51,01; 64,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>47,53; 56,95</t>
+          <t>57,08; 65,18</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>26,55%</t>
+          <t>49,03%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>33,32%</t>
+          <t>49,66%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>30,5%</t>
+          <t>49,34%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,94; 58,69</t>
+          <t>42,01; 56,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,94; 54,73</t>
+          <t>42,61; 59,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,95; 45,95</t>
+          <t>44,43; 55,63</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>49,03%</t>
+          <t>53,99%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>49,66%</t>
+          <t>50,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>49,34%</t>
+          <t>52,02%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>42,01; 56,66</t>
+          <t>47,15; 60,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>42,61; 59,67</t>
+          <t>43,84; 57,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>44,43; 55,63</t>
+          <t>47,53; 56,95</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP30B2_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/iP30B2_2023-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores que toman frutos sexos con regularidad (al menos 2-3 veces a la semana)</t>
+          <t>Menores que toman frutos secos con regularidad (al menos 2-3 veces a la semana)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>52,47; 71,17</t>
+          <t>53,15; 71,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>42,95; 59,98</t>
+          <t>42,8; 59,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>50,86; 63,63</t>
+          <t>50,52; 63,09</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>58,15; 69,58</t>
+          <t>58,18; 69,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>51,01; 64,09</t>
+          <t>50,92; 63,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>57,08; 65,18</t>
+          <t>57,14; 65,54</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>42,01; 56,66</t>
+          <t>41,55; 56,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>42,61; 59,67</t>
+          <t>42,37; 58,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>44,43; 55,63</t>
+          <t>43,94; 54,98</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>47,15; 60,88</t>
+          <t>47,02; 60,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>43,84; 57,04</t>
+          <t>43,52; 56,54</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>47,53; 56,95</t>
+          <t>47,23; 56,53</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>53,72; 60,74</t>
+          <t>53,74; 60,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>48,43; 55,68</t>
+          <t>48,5; 55,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>52,35; 57,27</t>
+          <t>52,34; 57,31</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
